--- a/User_story/Capstone User stories .xlsx
+++ b/User_story/Capstone User stories .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Story ID</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>Team application</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Download assessments</t>
+  </si>
+  <si>
+    <t>Feedback notification</t>
+  </si>
+  <si>
+    <t>Mark Assessments</t>
+  </si>
+  <si>
+    <t>Resubmit</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Cohort view/edit</t>
+  </si>
+  <si>
+    <t>Cohort release</t>
   </si>
 </sst>
 </file>
@@ -449,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +522,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A35" si="0">A4+1</f>
+        <f t="shared" ref="A5:A38" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -704,53 +728,53 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>A27+1</f>
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +783,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -768,7 +792,93 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>A38+1</f>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>A40+1</f>
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ref="A42:A45" si="1">A40+1</f>
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
